--- a/docs/Weekly Gantt Charts/gantt_12_5.xlsx
+++ b/docs/Weekly Gantt Charts/gantt_12_5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucas/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/transitwise/docs/Weekly Gantt Charts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B07C5F8-2B08-CF47-A907-3CC14AF56EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849CF7BD-A90B-D04A-B4A3-17910C0A05E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -957,6 +957,28 @@
     <xf numFmtId="0" fontId="27" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="32" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -971,14 +993,9 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -991,23 +1008,6 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="32" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1340,8 +1340,8 @@
   </sheetPr>
   <dimension ref="A1:BZ55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="174" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A36" zoomScale="174" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -1438,38 +1438,38 @@
     </row>
     <row r="2" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
       <c r="H2" s="51"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="69"/>
-      <c r="U2" s="69"/>
-      <c r="V2" s="69"/>
-      <c r="W2" s="69"/>
-      <c r="X2" s="69"/>
-      <c r="Y2" s="69"/>
-      <c r="Z2" s="69"/>
-      <c r="AA2" s="69"/>
-      <c r="AB2" s="69"/>
-      <c r="AC2" s="69"/>
-      <c r="AD2" s="69"/>
-      <c r="AE2" s="69"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="81"/>
+      <c r="V2" s="81"/>
+      <c r="W2" s="81"/>
+      <c r="X2" s="81"/>
+      <c r="Y2" s="81"/>
+      <c r="Z2" s="81"/>
+      <c r="AA2" s="81"/>
+      <c r="AB2" s="81"/>
+      <c r="AC2" s="81"/>
+      <c r="AD2" s="81"/>
+      <c r="AE2" s="81"/>
       <c r="AF2" s="10"/>
       <c r="AG2" s="10"/>
       <c r="AH2" s="10"/>
@@ -1600,41 +1600,41 @@
     </row>
     <row r="4" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="74" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
       <c r="H4" s="53"/>
-      <c r="I4" s="72" t="s">
+      <c r="I4" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="76" t="s">
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="75"/>
-      <c r="S4" s="75"/>
-      <c r="T4" s="75"/>
-      <c r="U4" s="75"/>
-      <c r="V4" s="75"/>
-      <c r="W4" s="75"/>
-      <c r="X4" s="75"/>
-      <c r="Y4" s="75"/>
-      <c r="Z4" s="75"/>
-      <c r="AA4" s="75"/>
-      <c r="AB4" s="75"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="76"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
+      <c r="V4" s="76"/>
+      <c r="W4" s="76"/>
+      <c r="X4" s="76"/>
+      <c r="Y4" s="76"/>
+      <c r="Z4" s="76"/>
+      <c r="AA4" s="76"/>
+      <c r="AB4" s="76"/>
       <c r="AC4" s="15"/>
       <c r="AD4" s="9"/>
       <c r="AE4" s="9"/>
@@ -1688,40 +1688,40 @@
     </row>
     <row r="5" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="86" t="s">
+      <c r="C5" s="74"/>
+      <c r="D5" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
       <c r="H5" s="54"/>
-      <c r="I5" s="72" t="s">
+      <c r="I5" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="73"/>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="87">
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="77">
         <v>45174</v>
       </c>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="75"/>
-      <c r="T5" s="75"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
-      <c r="W5" s="75"/>
-      <c r="X5" s="75"/>
-      <c r="Y5" s="75"/>
-      <c r="Z5" s="75"/>
-      <c r="AA5" s="75"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
+      <c r="W5" s="76"/>
+      <c r="X5" s="76"/>
+      <c r="Y5" s="76"/>
+      <c r="Z5" s="76"/>
+      <c r="AA5" s="76"/>
       <c r="AB5" s="16"/>
       <c r="AC5" s="15"/>
       <c r="AD5" s="1"/>
@@ -1944,205 +1944,205 @@
     </row>
     <row r="8" spans="1:78" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="21"/>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="66" t="s">
+      <c r="E8" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="66" t="s">
+      <c r="F8" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="66" t="s">
+      <c r="G8" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="77" t="s">
+      <c r="H8" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="79"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="80"/>
-      <c r="L8" s="80"/>
-      <c r="M8" s="80"/>
-      <c r="N8" s="80"/>
-      <c r="O8" s="80"/>
-      <c r="P8" s="80"/>
-      <c r="Q8" s="80"/>
-      <c r="R8" s="80"/>
-      <c r="S8" s="80"/>
-      <c r="T8" s="80"/>
-      <c r="U8" s="80"/>
-      <c r="V8" s="80"/>
-      <c r="W8" s="80"/>
-      <c r="X8" s="81"/>
-      <c r="Y8" s="80"/>
-      <c r="Z8" s="80"/>
-      <c r="AA8" s="80"/>
-      <c r="AB8" s="80"/>
-      <c r="AC8" s="80"/>
-      <c r="AD8" s="80"/>
-      <c r="AE8" s="80"/>
-      <c r="AF8" s="80"/>
-      <c r="AG8" s="80"/>
-      <c r="AH8" s="80"/>
-      <c r="AI8" s="80"/>
-      <c r="AJ8" s="80"/>
-      <c r="AK8" s="80"/>
-      <c r="AL8" s="80"/>
-      <c r="AM8" s="81"/>
-      <c r="AN8" s="80"/>
-      <c r="AO8" s="80"/>
-      <c r="AP8" s="80"/>
-      <c r="AQ8" s="80"/>
-      <c r="AR8" s="80"/>
-      <c r="AS8" s="80"/>
-      <c r="AT8" s="80"/>
-      <c r="AU8" s="80"/>
-      <c r="AV8" s="80"/>
-      <c r="AW8" s="80"/>
-      <c r="AX8" s="80"/>
-      <c r="AY8" s="80"/>
-      <c r="AZ8" s="80"/>
-      <c r="BA8" s="80"/>
-      <c r="BB8" s="81"/>
-      <c r="BC8" s="80"/>
-      <c r="BD8" s="80"/>
-      <c r="BE8" s="80"/>
-      <c r="BF8" s="80"/>
-      <c r="BG8" s="80"/>
-      <c r="BH8" s="80"/>
-      <c r="BI8" s="80"/>
-      <c r="BJ8" s="80"/>
-      <c r="BK8" s="80"/>
-      <c r="BL8" s="80"/>
-      <c r="BM8" s="80"/>
-      <c r="BN8" s="80"/>
-      <c r="BO8" s="80"/>
-      <c r="BP8" s="80"/>
-      <c r="BQ8" s="80"/>
-      <c r="BR8" s="80"/>
-      <c r="BS8" s="80"/>
-      <c r="BT8" s="80"/>
-      <c r="BU8" s="80"/>
-      <c r="BV8" s="80"/>
-      <c r="BW8" s="80"/>
-      <c r="BX8" s="80"/>
-      <c r="BY8" s="80"/>
-      <c r="BZ8" s="85"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="68"/>
+      <c r="Q8" s="68"/>
+      <c r="R8" s="68"/>
+      <c r="S8" s="68"/>
+      <c r="T8" s="68"/>
+      <c r="U8" s="68"/>
+      <c r="V8" s="68"/>
+      <c r="W8" s="68"/>
+      <c r="X8" s="67"/>
+      <c r="Y8" s="68"/>
+      <c r="Z8" s="68"/>
+      <c r="AA8" s="68"/>
+      <c r="AB8" s="68"/>
+      <c r="AC8" s="68"/>
+      <c r="AD8" s="68"/>
+      <c r="AE8" s="68"/>
+      <c r="AF8" s="68"/>
+      <c r="AG8" s="68"/>
+      <c r="AH8" s="68"/>
+      <c r="AI8" s="68"/>
+      <c r="AJ8" s="68"/>
+      <c r="AK8" s="68"/>
+      <c r="AL8" s="68"/>
+      <c r="AM8" s="67"/>
+      <c r="AN8" s="68"/>
+      <c r="AO8" s="68"/>
+      <c r="AP8" s="68"/>
+      <c r="AQ8" s="68"/>
+      <c r="AR8" s="68"/>
+      <c r="AS8" s="68"/>
+      <c r="AT8" s="68"/>
+      <c r="AU8" s="68"/>
+      <c r="AV8" s="68"/>
+      <c r="AW8" s="68"/>
+      <c r="AX8" s="68"/>
+      <c r="AY8" s="68"/>
+      <c r="AZ8" s="68"/>
+      <c r="BA8" s="68"/>
+      <c r="BB8" s="67"/>
+      <c r="BC8" s="68"/>
+      <c r="BD8" s="68"/>
+      <c r="BE8" s="68"/>
+      <c r="BF8" s="68"/>
+      <c r="BG8" s="68"/>
+      <c r="BH8" s="68"/>
+      <c r="BI8" s="68"/>
+      <c r="BJ8" s="68"/>
+      <c r="BK8" s="68"/>
+      <c r="BL8" s="68"/>
+      <c r="BM8" s="68"/>
+      <c r="BN8" s="68"/>
+      <c r="BO8" s="68"/>
+      <c r="BP8" s="68"/>
+      <c r="BQ8" s="68"/>
+      <c r="BR8" s="68"/>
+      <c r="BS8" s="68"/>
+      <c r="BT8" s="68"/>
+      <c r="BU8" s="68"/>
+      <c r="BV8" s="68"/>
+      <c r="BW8" s="68"/>
+      <c r="BX8" s="68"/>
+      <c r="BY8" s="68"/>
+      <c r="BZ8" s="69"/>
     </row>
     <row r="9" spans="1:78" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="22"/>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="82" t="s">
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="84"/>
-      <c r="N9" s="82" t="s">
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="O9" s="83"/>
-      <c r="P9" s="83"/>
-      <c r="Q9" s="83"/>
-      <c r="R9" s="84"/>
-      <c r="S9" s="82" t="s">
+      <c r="O9" s="71"/>
+      <c r="P9" s="71"/>
+      <c r="Q9" s="71"/>
+      <c r="R9" s="72"/>
+      <c r="S9" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="T9" s="83"/>
-      <c r="U9" s="83"/>
-      <c r="V9" s="83"/>
-      <c r="W9" s="84"/>
-      <c r="X9" s="82" t="s">
+      <c r="T9" s="71"/>
+      <c r="U9" s="71"/>
+      <c r="V9" s="71"/>
+      <c r="W9" s="72"/>
+      <c r="X9" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="Y9" s="83"/>
-      <c r="Z9" s="83"/>
-      <c r="AA9" s="83"/>
-      <c r="AB9" s="84"/>
-      <c r="AC9" s="82" t="s">
+      <c r="Y9" s="71"/>
+      <c r="Z9" s="71"/>
+      <c r="AA9" s="71"/>
+      <c r="AB9" s="72"/>
+      <c r="AC9" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="AD9" s="83"/>
-      <c r="AE9" s="83"/>
-      <c r="AF9" s="83"/>
-      <c r="AG9" s="84"/>
-      <c r="AH9" s="82" t="s">
+      <c r="AD9" s="71"/>
+      <c r="AE9" s="71"/>
+      <c r="AF9" s="71"/>
+      <c r="AG9" s="72"/>
+      <c r="AH9" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="AI9" s="83"/>
-      <c r="AJ9" s="83"/>
-      <c r="AK9" s="83"/>
-      <c r="AL9" s="84"/>
-      <c r="AM9" s="82" t="s">
+      <c r="AI9" s="71"/>
+      <c r="AJ9" s="71"/>
+      <c r="AK9" s="71"/>
+      <c r="AL9" s="72"/>
+      <c r="AM9" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="AN9" s="83"/>
-      <c r="AO9" s="83"/>
-      <c r="AP9" s="83"/>
-      <c r="AQ9" s="84"/>
-      <c r="AR9" s="82" t="s">
+      <c r="AN9" s="71"/>
+      <c r="AO9" s="71"/>
+      <c r="AP9" s="71"/>
+      <c r="AQ9" s="72"/>
+      <c r="AR9" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="AS9" s="83"/>
-      <c r="AT9" s="83"/>
-      <c r="AU9" s="83"/>
-      <c r="AV9" s="84"/>
-      <c r="AW9" s="82" t="s">
+      <c r="AS9" s="71"/>
+      <c r="AT9" s="71"/>
+      <c r="AU9" s="71"/>
+      <c r="AV9" s="72"/>
+      <c r="AW9" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="AX9" s="83"/>
-      <c r="AY9" s="83"/>
-      <c r="AZ9" s="83"/>
-      <c r="BA9" s="84"/>
-      <c r="BB9" s="82" t="s">
+      <c r="AX9" s="71"/>
+      <c r="AY9" s="71"/>
+      <c r="AZ9" s="71"/>
+      <c r="BA9" s="72"/>
+      <c r="BB9" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="BC9" s="83"/>
-      <c r="BD9" s="83"/>
-      <c r="BE9" s="83"/>
-      <c r="BF9" s="84"/>
-      <c r="BG9" s="82" t="s">
+      <c r="BC9" s="71"/>
+      <c r="BD9" s="71"/>
+      <c r="BE9" s="71"/>
+      <c r="BF9" s="72"/>
+      <c r="BG9" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="BH9" s="83"/>
-      <c r="BI9" s="83"/>
-      <c r="BJ9" s="83"/>
-      <c r="BK9" s="84"/>
-      <c r="BL9" s="82" t="s">
+      <c r="BH9" s="71"/>
+      <c r="BI9" s="71"/>
+      <c r="BJ9" s="71"/>
+      <c r="BK9" s="72"/>
+      <c r="BL9" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="BM9" s="83"/>
-      <c r="BN9" s="83"/>
-      <c r="BO9" s="83"/>
-      <c r="BP9" s="84"/>
-      <c r="BQ9" s="82" t="s">
+      <c r="BM9" s="71"/>
+      <c r="BN9" s="71"/>
+      <c r="BO9" s="71"/>
+      <c r="BP9" s="72"/>
+      <c r="BQ9" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="BR9" s="83"/>
-      <c r="BS9" s="83"/>
-      <c r="BT9" s="83"/>
-      <c r="BU9" s="84"/>
-      <c r="BV9" s="82" t="s">
+      <c r="BR9" s="71"/>
+      <c r="BS9" s="71"/>
+      <c r="BT9" s="71"/>
+      <c r="BU9" s="72"/>
+      <c r="BV9" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="BW9" s="83"/>
-      <c r="BX9" s="83"/>
-      <c r="BY9" s="83"/>
-      <c r="BZ9" s="84"/>
+      <c r="BW9" s="71"/>
+      <c r="BX9" s="71"/>
+      <c r="BY9" s="71"/>
+      <c r="BZ9" s="72"/>
     </row>
     <row r="10" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="18"/>
@@ -5888,7 +5888,7 @@
       <c r="E50" s="32">
         <v>45237</v>
       </c>
-      <c r="F50" s="88">
+      <c r="F50" s="66">
         <v>45269</v>
       </c>
       <c r="G50" s="46"/>
@@ -6163,7 +6163,7 @@
       </c>
       <c r="G53" s="33"/>
       <c r="H53" s="49">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I53" s="38"/>
       <c r="J53" s="39"/>
@@ -6403,6 +6403,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="O2:AE2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:AB4"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:W8"/>
+    <mergeCell ref="X8:AL8"/>
+    <mergeCell ref="AM8:BA8"/>
+    <mergeCell ref="X9:AB9"/>
+    <mergeCell ref="AC9:AG9"/>
+    <mergeCell ref="AH9:AL9"/>
+    <mergeCell ref="AM9:AQ9"/>
+    <mergeCell ref="AR9:AV9"/>
+    <mergeCell ref="AW9:BA9"/>
     <mergeCell ref="BB8:BZ8"/>
     <mergeCell ref="I9:M9"/>
     <mergeCell ref="N9:R9"/>
@@ -6419,26 +6439,6 @@
     <mergeCell ref="BQ9:BU9"/>
     <mergeCell ref="BV9:BZ9"/>
     <mergeCell ref="S9:W9"/>
-    <mergeCell ref="AM8:BA8"/>
-    <mergeCell ref="X9:AB9"/>
-    <mergeCell ref="AC9:AG9"/>
-    <mergeCell ref="AH9:AL9"/>
-    <mergeCell ref="AM9:AQ9"/>
-    <mergeCell ref="AR9:AV9"/>
-    <mergeCell ref="AW9:BA9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="O2:AE2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:AB4"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:W8"/>
-    <mergeCell ref="X8:AL8"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H54 H57:H1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="between">
@@ -6476,6 +6476,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F7EF2104F2CEFE4DACFBF5BA7D93FB4D" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bb0ed258f694207805e211ca255f9b46">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6b71f768-6d8b-468c-a986-1e1afc74f0e3" xmlns:ns4="d07d918a-d172-4450-8f4a-7b087689ff85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c03c9fe975be0719773112499dde791" ns3:_="" ns4:_="">
     <xsd:import namespace="6b71f768-6d8b-468c-a986-1e1afc74f0e3"/>
@@ -6704,15 +6713,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14D564B3-5264-41FC-B8E0-395B567D9994}">
   <ds:schemaRefs>
@@ -6731,6 +6731,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7F187D4-7552-4664-8374-8AA9CBDA3C6B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FABC364-430D-422C-AD85-145699D2125C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6747,12 +6755,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7F187D4-7552-4664-8374-8AA9CBDA3C6B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>